--- a/data/trans_bre/P6907S1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Clase-trans_bre.xlsx
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 14,99</t>
+          <t>-10,82; 14,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,45</t>
+          <t>0,0; 34,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 4,65</t>
+          <t>-7,43; 6,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 14,89</t>
+          <t>-5,84; 14,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-63,14; 240,45</t>
+          <t>-66,57; 220,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,56; 637,38</t>
+          <t>-49,69; 557,05</t>
         </is>
       </c>
     </row>
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 6,86</t>
+          <t>-24,72; 7,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 59,06</t>
+          <t>-9,61; 59,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,38; 0,0</t>
+          <t>-18,08; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 24,64</t>
+          <t>-7,19; 22,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-89,8; 128,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,89; 529,55</t>
+          <t>-63,25; 509,93</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 14,94</t>
+          <t>-11,64; 19,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,7; -2,84</t>
+          <t>-26,57; -2,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,61; -3,17</t>
+          <t>-17,07; -3,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 6,04</t>
+          <t>-29,82; 6,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 564,15</t>
+          <t>-100,0; 571,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-91,61; 63,54</t>
+          <t>-90,5; 85,02</t>
         </is>
       </c>
     </row>
@@ -968,27 +968,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 19,21</t>
+          <t>-0,7; 19,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -1,91</t>
+          <t>-16,97; -1,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 5,86</t>
+          <t>-2,02; 6,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 6,46</t>
+          <t>-6,89; 6,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 499,84</t>
+          <t>-16,56; 484,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-62,91; 134,89</t>
+          <t>-64,62; 143,72</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 7,82</t>
+          <t>-13,13; 8,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1078,17 +1078,17 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 12,81</t>
+          <t>-4,29; 13,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 1,38</t>
+          <t>-16,13; 1,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-83,31; 207,58</t>
+          <t>-82,35; 228,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-95,84; 88,78</t>
+          <t>-92,94; 101,12</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 6,86</t>
+          <t>-2,84; 6,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 2,16</t>
+          <t>-7,91; 2,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,17</t>
+          <t>-3,54; 2,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 0,95</t>
+          <t>-7,7; 1,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 93,45</t>
+          <t>-26,04; 88,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,17</t>
+          <t>-100,0; 96,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-81,34; 125,13</t>
+          <t>-79,45; 108,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 11,25</t>
+          <t>-56,71; 21,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6907S1-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P6907S1-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
